--- a/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89C932-02D9-C046-B7FB-E80023832053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16998B9-0C91-114B-9F5B-B8506C8D034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>target</t>
   </si>
@@ -136,6 +136,39 @@
   </si>
   <si>
     <t>sense</t>
+  </si>
+  <si>
+    <t>Exon</t>
+  </si>
+  <si>
+    <t>BARD1_X1</t>
+  </si>
+  <si>
+    <t>BARD1_X3</t>
+  </si>
+  <si>
+    <t>BARD1_X4</t>
+  </si>
+  <si>
+    <t>BARD1_X5</t>
+  </si>
+  <si>
+    <t>BARD1_X6</t>
+  </si>
+  <si>
+    <t>BARD1_X7</t>
+  </si>
+  <si>
+    <t>BARD1_X8</t>
+  </si>
+  <si>
+    <t>BARD1_X9</t>
+  </si>
+  <si>
+    <t>BARD1_X10</t>
+  </si>
+  <si>
+    <t>BARD_X11</t>
   </si>
 </sst>
 </file>
@@ -897,105 +930,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
         <v>214809412</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>214809569</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>214797061</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>214797117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
         <v>214792297</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>214792445</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
         <v>214780560</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>214781509</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
         <v>214769232</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>214769312</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
         <v>214767482</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>214767654</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
         <v>214752447</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>214752555</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
         <v>214745722</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>214745854</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
         <v>214745067</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>214745159</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
         <v>214730411</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>214730508</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
         <v>214728676</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>214729008</v>
       </c>
     </row>
@@ -1008,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B100B6-3216-FE4F-97CE-2991D8618EC1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16998B9-0C91-114B-9F5B-B8506C8D034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337DCBE2-E2A7-9449-827C-C5A792C67393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>sense</t>
   </si>
   <si>
-    <t>Exon</t>
-  </si>
-  <si>
     <t>BARD1_X1</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>BARD_X11</t>
+  </si>
+  <si>
+    <t>exon</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>214809412</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>214792297</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>214780560</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>214769232</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>214767482</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>214752447</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>214745722</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>214745067</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>214730411</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>214728676</v>

--- a/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89C932-02D9-C046-B7FB-E80023832053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C1BA86-5876-FF47-AD02-62AF6A5DC39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -192,11 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,9 +508,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -758,15 +772,15 @@
         <v>214767430</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>214752680</v>
-      </c>
-      <c r="C24">
-        <v>214752442</v>
+      <c r="B24" s="2">
+        <v>214752587</v>
+      </c>
+      <c r="C24" s="2">
+        <v>214752489</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1008,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B100B6-3216-FE4F-97CE-2991D8618EC1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/PillarProject_filtering/BARD1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C1BA86-5876-FF47-AD02-62AF6A5DC39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3355832-8B67-C644-BB2C-D0517CE2B78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15920" yWindow="620" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,12 +154,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -198,12 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,24 +502,23 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -549,7 +541,7 @@
         <v>214809500</v>
       </c>
       <c r="C3">
-        <v>214809379</v>
+        <v>214809389</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,7 +607,7 @@
         <v>214781383</v>
       </c>
       <c r="C9">
-        <v>214781206</v>
+        <v>214781296</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,14 +764,14 @@
         <v>214767430</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>214752587</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>214752489</v>
       </c>
     </row>
@@ -916,6 +908,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/20250415_BARD1_filter_entry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/PillarProject_filtering/BARD1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3355832-8B67-C644-BB2C-D0517CE2B78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81297937-E565-7C48-9F19-7AF65379060D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="620" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B100B6-3216-FE4F-97CE-2991D8618EC1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>214725646</v>
+      </c>
+      <c r="B2">
         <v>214809683</v>
-      </c>
-      <c r="B2">
-        <v>214725646</v>
       </c>
       <c r="C2">
         <v>0</v>
